--- a/templates/template__devices.xlsx
+++ b/templates/template__devices.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="2640" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="_DEVICE" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>_DEVICE</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>simplex</t>
-  </si>
-  <si>
-    <t>comment</t>
   </si>
   <si>
     <t>FRONT</t>
@@ -400,30 +397,6 @@
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -447,101 +420,125 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal 3" xfId="3"/>
@@ -897,545 +894,556 @@
   <dimension ref="A3:AMJ40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="16"/>
-    <col min="2" max="2" width="14.42578125" style="9"/>
-    <col min="3" max="3" width="8.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8" style="10" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="11"/>
-    <col min="9" max="9" width="12.140625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="7" style="10" customWidth="1"/>
-    <col min="11" max="11" width="45" style="10" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="10" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" style="15" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" style="16" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" style="15" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="16" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" style="16" customWidth="1"/>
-    <col min="20" max="1024" width="14.42578125" style="16"/>
-    <col min="1025" max="16384" width="14.42578125" style="50"/>
+    <col min="1" max="1" width="14.42578125" style="8"/>
+    <col min="2" max="2" width="14.42578125" style="1"/>
+    <col min="3" max="3" width="8.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="3"/>
+    <col min="9" max="9" width="12.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="7" style="2" customWidth="1"/>
+    <col min="11" max="11" width="45" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="7" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" style="8" customWidth="1"/>
+    <col min="20" max="1024" width="14.42578125" style="8"/>
+    <col min="1025" max="16384" width="14.42578125" style="31"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="J5" s="22" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="J5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="M5" s="22" t="s">
+      <c r="K5" s="37"/>
+      <c r="M5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="40"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="43"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="N9" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="J10" s="16"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="25" t="s">
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="43"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="J13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="37"/>
+      <c r="M13" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="J15" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="J16" s="44"/>
+      <c r="K16" s="40"/>
+      <c r="N16" s="46"/>
+      <c r="R16" s="45"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+    </row>
+    <row r="17" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J17" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="R17" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+    </row>
+    <row r="18" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="33"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+    </row>
+    <row r="19" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J19" s="22"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="2"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+    </row>
+    <row r="20" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J20" s="22"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="2"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+    </row>
+    <row r="21" spans="10:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="42"/>
+      <c r="M21" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+    </row>
+    <row r="22" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+    </row>
+    <row r="23" spans="10:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="7"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="N9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J10" s="29"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32" t="s">
+      <c r="K23" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+    </row>
+    <row r="24" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J24" s="36"/>
+      <c r="K24" s="32"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+    </row>
+    <row r="25" spans="10:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="38"/>
+      <c r="K25" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="33"/>
+      <c r="R25" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J26" s="38"/>
+      <c r="K26" s="32"/>
+      <c r="N26" s="33"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+    </row>
+    <row r="27" spans="10:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+    </row>
+    <row r="28" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J28" s="35"/>
+      <c r="K28" s="32"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="36"/>
+    </row>
+    <row r="29" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+    </row>
+    <row r="30" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J31" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="37"/>
+      <c r="M31" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+    </row>
+    <row r="32" spans="10:22" x14ac:dyDescent="0.25">
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+    </row>
+    <row r="33" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="7"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J13" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="22"/>
-      <c r="M13" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J15" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J16" s="33"/>
-      <c r="K16" s="6"/>
-      <c r="N16" s="35"/>
-      <c r="R16" s="34"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-    </row>
-    <row r="17" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J17" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="R17" s="5" t="s">
+      <c r="N33" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-    </row>
-    <row r="18" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J18" s="36"/>
-      <c r="K18" s="6"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="5"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-    </row>
-    <row r="19" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J19" s="40"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="10"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-    </row>
-    <row r="20" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J20" s="40"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="10"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-    </row>
-    <row r="21" spans="10:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J21" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="41"/>
-      <c r="M21" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-    </row>
-    <row r="22" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-    </row>
-    <row r="23" spans="10:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J23" s="4" t="s">
+      <c r="R33" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="S33" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J34" s="26"/>
+      <c r="K34" s="32"/>
+      <c r="M34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="33"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-    </row>
-    <row r="24" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J24" s="4"/>
-      <c r="K24" s="3"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-    </row>
-    <row r="25" spans="10:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J25" s="2"/>
-      <c r="K25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="5"/>
-      <c r="R25" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J26" s="2"/>
-      <c r="K26" s="3"/>
-      <c r="N26" s="5"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-    </row>
-    <row r="27" spans="10:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" s="4" t="s">
+      <c r="Q34" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" s="33"/>
+      <c r="S34" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="10:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-    </row>
-    <row r="28" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J28" s="1"/>
-      <c r="K28" s="3"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-    </row>
-    <row r="30" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-    </row>
-    <row r="31" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J31" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="22"/>
-      <c r="M31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-    </row>
-    <row r="32" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-    </row>
-    <row r="33" spans="10:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J33" s="43" t="s">
+      <c r="S35" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="K36" s="32"/>
+      <c r="M36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="34"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S33" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J34" s="45"/>
-      <c r="K34" s="3"/>
-      <c r="M34" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" s="5"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q34" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="R34" s="5"/>
-      <c r="S34" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="10:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J35" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="S35" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="K36" s="3"/>
-      <c r="M36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N36" s="18"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="10" t="s">
+      <c r="Q36" s="30"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="O37" s="38"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="38"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="20"/>
     </row>
     <row r="39" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="M39" s="16"/>
+      <c r="M39" s="8"/>
     </row>
     <row r="40" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="M40" s="16"/>
+      <c r="M40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="J31:K32"/>
-    <mergeCell ref="M31:S32"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="M5:S6"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="J13:K14"/>
+    <mergeCell ref="M13:S14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="J21:K22"/>
+    <mergeCell ref="M21:S22"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="N23:N24"/>
@@ -1444,32 +1452,18 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="N25:N26"/>
     <mergeCell ref="R25:R26"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="J21:K22"/>
-    <mergeCell ref="M21:S22"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="J13:K14"/>
-    <mergeCell ref="M13:S14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="M5:S6"/>
-    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="J31:K32"/>
+    <mergeCell ref="M31:S32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="R35:R36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
